--- a/Code/Results/Cases/Case_10_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_10_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.457262170408171</v>
+        <v>2.575330062611954</v>
       </c>
       <c r="C2">
-        <v>1.007702210158641</v>
+        <v>0.493245815474495</v>
       </c>
       <c r="D2">
-        <v>0.3492156199738474</v>
+        <v>0.02202191549625709</v>
       </c>
       <c r="E2">
-        <v>1.343180230842464</v>
+        <v>0.03529631138690292</v>
       </c>
       <c r="F2">
-        <v>6.463794665469322</v>
+        <v>1.179154797538047</v>
       </c>
       <c r="G2">
-        <v>0.0007918837209675011</v>
+        <v>0.9638649883523271</v>
       </c>
       <c r="H2">
-        <v>0.009995295743722019</v>
+        <v>0.01040290662357867</v>
       </c>
       <c r="I2">
-        <v>0.002670933310996659</v>
+        <v>0.00972868168517671</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6925679081848273</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6271298626035815</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0449275338262467</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.06628570171035619</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2025332234753563</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4574232812104597</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.997853015548628</v>
+        <v>2.245565849066281</v>
       </c>
       <c r="C3">
-        <v>0.869853693225707</v>
+        <v>0.4239706842996327</v>
       </c>
       <c r="D3">
-        <v>0.3064966316520383</v>
+        <v>0.02046447482341662</v>
       </c>
       <c r="E3">
-        <v>1.155751310872887</v>
+        <v>0.03397954296909356</v>
       </c>
       <c r="F3">
-        <v>5.654258087503649</v>
+        <v>1.137354588856965</v>
       </c>
       <c r="G3">
-        <v>0.0007995267261627653</v>
+        <v>0.9262942455190455</v>
       </c>
       <c r="H3">
-        <v>0.00566132105441941</v>
+        <v>0.01362771863664813</v>
       </c>
       <c r="I3">
-        <v>0.0006838291904367466</v>
+        <v>0.01273968863731323</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6735127903932465</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6250566231841219</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05439983811950455</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.06315692902484127</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1803479094844818</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3990117444476056</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.717878933285135</v>
+        <v>2.042824585571282</v>
       </c>
       <c r="C4">
-        <v>0.7870470786523356</v>
+        <v>0.3820711376726535</v>
       </c>
       <c r="D4">
-        <v>0.2802437474734631</v>
+        <v>0.01953964504353678</v>
       </c>
       <c r="E4">
-        <v>1.042418103720038</v>
+        <v>0.03315972126344097</v>
       </c>
       <c r="F4">
-        <v>5.159655295851422</v>
+        <v>1.111730444145046</v>
       </c>
       <c r="G4">
-        <v>0.00080432863316101</v>
+        <v>0.9034131470153568</v>
       </c>
       <c r="H4">
-        <v>0.003562661497822361</v>
+        <v>0.01590105226919059</v>
       </c>
       <c r="I4">
-        <v>0.0004342247631967666</v>
+        <v>0.01490942752857727</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6616145251909984</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6237031817922443</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06148810794516457</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.06121960779663738</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1668919838931515</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3632172225360009</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.604150420224698</v>
+        <v>1.960038251449816</v>
       </c>
       <c r="C5">
-        <v>0.7552167163809997</v>
+        <v>0.3658153445873893</v>
       </c>
       <c r="D5">
-        <v>0.2683125171909211</v>
+        <v>0.01920125864725897</v>
       </c>
       <c r="E5">
-        <v>0.9965441341777392</v>
+        <v>0.03281505954365105</v>
       </c>
       <c r="F5">
-        <v>4.944718871251297</v>
+        <v>1.099769710588426</v>
       </c>
       <c r="G5">
-        <v>0.0008063365970838446</v>
+        <v>0.8925537600768365</v>
       </c>
       <c r="H5">
-        <v>0.00283109922356406</v>
+        <v>0.01690472085653599</v>
       </c>
       <c r="I5">
-        <v>0.000622890166188661</v>
+        <v>0.01597605184872819</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.655880514183977</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6220765530562389</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06471196218094377</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.06042149293746579</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.161623152747012</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.348747061020191</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.585207879043878</v>
+        <v>1.946179022230012</v>
       </c>
       <c r="C6">
-        <v>0.7518079961090791</v>
+        <v>0.3639444826519309</v>
       </c>
       <c r="D6">
-        <v>0.2648516623235935</v>
+        <v>0.01918356307065139</v>
       </c>
       <c r="E6">
-        <v>0.9888719871438241</v>
+        <v>0.03274870894621318</v>
       </c>
       <c r="F6">
-        <v>4.892255946361189</v>
+        <v>1.095926940640474</v>
       </c>
       <c r="G6">
-        <v>0.0008066988388415279</v>
+        <v>0.8888356169454994</v>
       </c>
       <c r="H6">
-        <v>0.002711539273524188</v>
+        <v>0.01708350717450347</v>
       </c>
       <c r="I6">
-        <v>0.0007586302123687716</v>
+        <v>0.01629484436584683</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6539075671116024</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6205227106142637</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06528732475634946</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.06028433698018443</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1609651086815234</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3464697150840195</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.716100113317282</v>
+        <v>2.041388474088023</v>
       </c>
       <c r="C7">
-        <v>0.7916813407236987</v>
+        <v>0.3835739112491581</v>
       </c>
       <c r="D7">
-        <v>0.2760110113271139</v>
+        <v>0.01973446821119929</v>
       </c>
       <c r="E7">
-        <v>1.041580167724106</v>
+        <v>0.03312565382251798</v>
       </c>
       <c r="F7">
-        <v>5.110605349627804</v>
+        <v>1.103725396982412</v>
       </c>
       <c r="G7">
-        <v>0.0008044293528601984</v>
+        <v>0.900798426392555</v>
       </c>
       <c r="H7">
-        <v>0.00353482695453966</v>
+        <v>0.01594738821556146</v>
       </c>
       <c r="I7">
-        <v>0.0006621355425160402</v>
+        <v>0.01529093949637605</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6511146500438798</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6186292387949521</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0616118841561093</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.06117740859965259</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.167426716483206</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3633754709382444</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.297930760598206</v>
+        <v>2.461170635610983</v>
       </c>
       <c r="C8">
-        <v>0.9664754913100921</v>
+        <v>0.470470210173346</v>
       </c>
       <c r="D8">
-        <v>0.3289524093292329</v>
+        <v>0.02194733484886058</v>
       </c>
       <c r="E8">
-        <v>1.277802295241244</v>
+        <v>0.03479691582015976</v>
       </c>
       <c r="F8">
-        <v>6.121670233424283</v>
+        <v>1.149025084571093</v>
       </c>
       <c r="G8">
-        <v>0.0007945947571169861</v>
+        <v>0.9531983633096246</v>
       </c>
       <c r="H8">
-        <v>0.00834023203055928</v>
+        <v>0.01150675994113957</v>
       </c>
       <c r="I8">
-        <v>0.001998973943032389</v>
+        <v>0.01115647961262844</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6576005733729318</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6168951708674726</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04806790910302183</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.06514296352472826</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1956970967963514</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4377577872907565</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.461276162754871</v>
+        <v>3.283592552972152</v>
       </c>
       <c r="C9">
-        <v>1.317628976875312</v>
+        <v>0.6441273532722391</v>
       </c>
       <c r="D9">
-        <v>0.4409129175473083</v>
+        <v>0.02601238683347162</v>
       </c>
       <c r="E9">
-        <v>1.758791490145597</v>
+        <v>0.03806339468727771</v>
       </c>
       <c r="F9">
-        <v>8.221729476999883</v>
+        <v>1.257599573150387</v>
       </c>
       <c r="G9">
-        <v>0.0007759650060087116</v>
+        <v>1.057179062364369</v>
       </c>
       <c r="H9">
-        <v>0.02293966575955908</v>
+        <v>0.00519284312236129</v>
       </c>
       <c r="I9">
-        <v>0.01318788530029646</v>
+        <v>0.005163798967561029</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7009922088410718</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6247180403846713</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03151217176555926</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.07290181975190002</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2514174859395695</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5836751941152798</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.332556541617578</v>
+        <v>3.890812378397413</v>
       </c>
       <c r="C10">
-        <v>1.589096750276838</v>
+        <v>0.7773596956059521</v>
       </c>
       <c r="D10">
-        <v>0.5003877811189454</v>
+        <v>0.02963691963804393</v>
       </c>
       <c r="E10">
-        <v>2.021280822810638</v>
+        <v>0.04026999340791343</v>
       </c>
       <c r="F10">
-        <v>9.52940342855976</v>
+        <v>1.297912150051786</v>
       </c>
       <c r="G10">
-        <v>0.0007632755018147897</v>
+        <v>1.1279430468078</v>
       </c>
       <c r="H10">
-        <v>0.03654587955837574</v>
+        <v>0.002582077983543485</v>
       </c>
       <c r="I10">
-        <v>0.02786243332301552</v>
+        <v>0.002855996989691079</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6795026036381699</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6087321800631216</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02593787775983802</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.0793723953204708</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2859916157823648</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6873431652076079</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.696287717332439</v>
+        <v>4.194613101458799</v>
       </c>
       <c r="C11">
-        <v>1.68929629314573</v>
+        <v>0.8715507955328405</v>
       </c>
       <c r="D11">
-        <v>0.3475534396946358</v>
+        <v>0.03044471841209884</v>
       </c>
       <c r="E11">
-        <v>1.319623735495057</v>
+        <v>0.04200898318374158</v>
       </c>
       <c r="F11">
-        <v>7.984121445527933</v>
+        <v>1.097319159631965</v>
       </c>
       <c r="G11">
-        <v>0.0007625219121048961</v>
+        <v>0.9991060732725856</v>
       </c>
       <c r="H11">
-        <v>0.05102710592101189</v>
+        <v>0.02097130858078344</v>
       </c>
       <c r="I11">
-        <v>0.02986244529849014</v>
+        <v>0.003016090574579522</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5252097790179846</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4903829395213535</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02604596347651444</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09619859848288215</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.238536756736039</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6964292236749472</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.821453138132654</v>
+        <v>4.324474760820294</v>
       </c>
       <c r="C12">
-        <v>1.71081905899149</v>
+        <v>0.9226637321516193</v>
       </c>
       <c r="D12">
-        <v>0.2378295168972926</v>
+        <v>0.02969625131385811</v>
       </c>
       <c r="E12">
-        <v>0.8095450099342685</v>
+        <v>0.04583140489759785</v>
       </c>
       <c r="F12">
-        <v>6.621540193137264</v>
+        <v>0.9475392969112448</v>
       </c>
       <c r="G12">
-        <v>0.0007639042150792652</v>
+        <v>0.8792229010957016</v>
       </c>
       <c r="H12">
-        <v>0.08537059510579326</v>
+        <v>0.05973092311554495</v>
       </c>
       <c r="I12">
-        <v>0.02834500312373667</v>
+        <v>0.002925027497447275</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4399765310926398</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4141150206579631</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02663079653463019</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1173516230943292</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1945680611147367</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6810123959761114</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.769062860697261</v>
+        <v>4.326293624772461</v>
       </c>
       <c r="C13">
-        <v>1.681431827745541</v>
+        <v>0.9483721681203576</v>
       </c>
       <c r="D13">
-        <v>0.1489218976295632</v>
+        <v>0.02771088379317632</v>
       </c>
       <c r="E13">
-        <v>0.4192333535295205</v>
+        <v>0.05148263254381114</v>
       </c>
       <c r="F13">
-        <v>5.257492853800528</v>
+        <v>0.8221751322603055</v>
       </c>
       <c r="G13">
-        <v>0.0007670939994285801</v>
+        <v>0.7468444651962614</v>
       </c>
       <c r="H13">
-        <v>0.1363447470369579</v>
+        <v>0.1158047913583715</v>
       </c>
       <c r="I13">
-        <v>0.02441139653021018</v>
+        <v>0.003075860453931156</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3979897838323723</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3596681471910301</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.027324550238367</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1422439340078725</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1521058015096841</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6464920303260087</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.653258874752623</v>
+        <v>4.269387274324458</v>
       </c>
       <c r="C14">
-        <v>1.640501665964337</v>
+        <v>0.9556674919291197</v>
       </c>
       <c r="D14">
-        <v>0.09914364752189897</v>
+        <v>0.02589992432915267</v>
       </c>
       <c r="E14">
-        <v>0.2200208786317432</v>
+        <v>0.05663460023941624</v>
       </c>
       <c r="F14">
-        <v>4.320288365004302</v>
+        <v>0.7438595284101055</v>
       </c>
       <c r="G14">
-        <v>0.0007700778533965794</v>
+        <v>0.6508539239510469</v>
       </c>
       <c r="H14">
-        <v>0.18241339872894</v>
+        <v>0.1654911589573373</v>
       </c>
       <c r="I14">
-        <v>0.02096641771609153</v>
+        <v>0.003417914927029031</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.383069959504887</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3302917106781749</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02789918355875898</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1620702001284826</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1241831209007387</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6139674009543441</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.587027398541977</v>
+        <v>4.227861093143872</v>
       </c>
       <c r="C15">
-        <v>1.621696695691526</v>
+        <v>0.9527124210373188</v>
       </c>
       <c r="D15">
-        <v>0.08790478637317278</v>
+        <v>0.02529709989016382</v>
       </c>
       <c r="E15">
-        <v>0.180148105521539</v>
+        <v>0.05792144170069413</v>
       </c>
       <c r="F15">
-        <v>4.065077586257132</v>
+        <v>0.7263199471892321</v>
       </c>
       <c r="G15">
-        <v>0.0007712711082461959</v>
+        <v>0.6238108411323253</v>
       </c>
       <c r="H15">
-        <v>0.1938160907104987</v>
+        <v>0.1781757933376156</v>
       </c>
       <c r="I15">
-        <v>0.01972158660848322</v>
+        <v>0.003720681972341211</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3844995413860204</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3251078153675131</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0281315955683743</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1666155868294226</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1173710550971379</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6022509505963853</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.224085017559617</v>
+        <v>3.964567540371263</v>
       </c>
       <c r="C16">
-        <v>1.516492032032318</v>
+        <v>0.8953961837629265</v>
       </c>
       <c r="D16">
-        <v>0.08526566423042681</v>
+        <v>0.02355541160690322</v>
       </c>
       <c r="E16">
-        <v>0.1700411051112454</v>
+        <v>0.0558771224718928</v>
       </c>
       <c r="F16">
-        <v>3.828971836814645</v>
+        <v>0.7461619256827916</v>
       </c>
       <c r="G16">
-        <v>0.00077591099244641</v>
+        <v>0.5994858764099007</v>
       </c>
       <c r="H16">
-        <v>0.1772398316277872</v>
+        <v>0.1664690468840888</v>
       </c>
       <c r="I16">
-        <v>0.01491254195543057</v>
+        <v>0.004709782400694529</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4349668050124649</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3447723749968219</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02927879090008867</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1569627255422219</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1129703082547522</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5656491726960482</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.007352928785792</v>
+        <v>3.793378528460039</v>
       </c>
       <c r="C17">
-        <v>1.457340512143503</v>
+        <v>0.8468173370050067</v>
       </c>
       <c r="D17">
-        <v>0.1063005318635462</v>
+        <v>0.02324096688844079</v>
       </c>
       <c r="E17">
-        <v>0.2527426306022065</v>
+        <v>0.05125210105603273</v>
       </c>
       <c r="F17">
-        <v>4.119620197415884</v>
+        <v>0.8013706416536408</v>
       </c>
       <c r="G17">
-        <v>0.0007779609381707517</v>
+        <v>0.6326172492237276</v>
       </c>
       <c r="H17">
-        <v>0.1380845818779335</v>
+        <v>0.1293453735326864</v>
       </c>
       <c r="I17">
-        <v>0.01298819220147251</v>
+        <v>0.005357155433859617</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4805465835257507</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3755206816808752</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03010718573505855</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.138803826231694</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1237412570413383</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5548037306265599</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.891181072940014</v>
+        <v>3.682184118254611</v>
       </c>
       <c r="C18">
-        <v>1.426784906721878</v>
+        <v>0.799955454781383</v>
       </c>
       <c r="D18">
-        <v>0.1630917184647416</v>
+        <v>0.02381085820563911</v>
       </c>
       <c r="E18">
-        <v>0.488672800946965</v>
+        <v>0.04528523975644383</v>
       </c>
       <c r="F18">
-        <v>4.989782952390868</v>
+        <v>0.9056964476283724</v>
       </c>
       <c r="G18">
-        <v>0.0007777175351106891</v>
+        <v>0.7214247772575817</v>
       </c>
       <c r="H18">
-        <v>0.08624958060428156</v>
+        <v>0.07672382139710265</v>
       </c>
       <c r="I18">
-        <v>0.0128610273449894</v>
+        <v>0.005290587225699639</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5395857267406683</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4272879496619879</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03026595771738338</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1147522065762985</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1507912662741191</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5644027715361233</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.865410637195282</v>
+        <v>3.626835311933519</v>
       </c>
       <c r="C19">
-        <v>1.433989826580387</v>
+        <v>0.7643477534289786</v>
       </c>
       <c r="D19">
-        <v>0.2585924094822332</v>
+        <v>0.02519536416508217</v>
       </c>
       <c r="E19">
-        <v>0.9316599478342198</v>
+        <v>0.04070219394791863</v>
       </c>
       <c r="F19">
-        <v>6.311405617291229</v>
+        <v>1.043973010333787</v>
       </c>
       <c r="G19">
-        <v>0.0007753471943131185</v>
+        <v>0.8467769262572773</v>
       </c>
       <c r="H19">
-        <v>0.04486607482094485</v>
+        <v>0.03110708536925699</v>
       </c>
       <c r="I19">
-        <v>0.01491509726212481</v>
+        <v>0.005300652506927683</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.608431462135826</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4950915297346157</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02968199357144474</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.09349458100779984</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1936855282518763</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5904019401955978</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.100185226391659</v>
+        <v>3.730542772962337</v>
       </c>
       <c r="C20">
-        <v>1.532472938516833</v>
+        <v>0.7518766083500452</v>
       </c>
       <c r="D20">
-        <v>0.4702190910753643</v>
+        <v>0.02863652459066302</v>
       </c>
       <c r="E20">
-        <v>1.945769640609583</v>
+        <v>0.03963957922645411</v>
       </c>
       <c r="F20">
-        <v>9.0203272447026</v>
+        <v>1.280974924166756</v>
       </c>
       <c r="G20">
-        <v>0.0007668416119520997</v>
+        <v>1.082962183675647</v>
       </c>
       <c r="H20">
-        <v>0.03244554102579755</v>
+        <v>0.003147735090820447</v>
       </c>
       <c r="I20">
-        <v>0.02379408360536761</v>
+        <v>0.004343895421947686</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7019942480879848</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6077840219860207</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0270239801491523</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.07781292892594927</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2783757230101287</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6609366252402538</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.784892976581773</v>
+        <v>4.191308444563163</v>
       </c>
       <c r="C21">
-        <v>1.750257957264921</v>
+        <v>0.8370991760489517</v>
       </c>
       <c r="D21">
-        <v>0.5534414014092022</v>
+        <v>0.03399779709696205</v>
       </c>
       <c r="E21">
-        <v>2.318371252717682</v>
+        <v>0.04150037939668783</v>
       </c>
       <c r="F21">
-        <v>10.45960704905036</v>
+        <v>1.301447301473047</v>
       </c>
       <c r="G21">
-        <v>0.000756201365715177</v>
+        <v>1.228755719718265</v>
       </c>
       <c r="H21">
-        <v>0.0464444912688986</v>
+        <v>0.001338954781424873</v>
       </c>
       <c r="I21">
-        <v>0.03888522512563775</v>
+        <v>0.002977197100690887</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5812642980512521</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5903805221845246</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02476532127994879</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.08124069206910534</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3172769205288404</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7475438851505487</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.238143054835405</v>
+        <v>4.494804636637866</v>
       </c>
       <c r="C22">
-        <v>1.888477988335353</v>
+        <v>0.8914304550596626</v>
       </c>
       <c r="D22">
-        <v>0.6034973891750326</v>
+        <v>0.0376313621052482</v>
       </c>
       <c r="E22">
-        <v>2.513470465521181</v>
+        <v>0.04270005088232609</v>
       </c>
       <c r="F22">
-        <v>11.35561038052936</v>
+        <v>1.305766648760326</v>
       </c>
       <c r="G22">
-        <v>0.0007494717359220136</v>
+        <v>1.327356522402567</v>
       </c>
       <c r="H22">
-        <v>0.05622256578920748</v>
+        <v>0.0006369335321736447</v>
       </c>
       <c r="I22">
-        <v>0.05032041316143676</v>
+        <v>0.002079275508475753</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5027663961931097</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.575253667711813</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.02449848130425991</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.08391471285581353</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3381966879325944</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8016560457866362</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.996341369730999</v>
+        <v>4.333306835918563</v>
       </c>
       <c r="C23">
-        <v>1.808243448853432</v>
+        <v>0.8610309418953079</v>
       </c>
       <c r="D23">
-        <v>0.5820632899846885</v>
+        <v>0.03519112547128245</v>
       </c>
       <c r="E23">
-        <v>2.409407682906746</v>
+        <v>0.04208699595626864</v>
       </c>
       <c r="F23">
-        <v>10.93547678253219</v>
+        <v>1.315639387855612</v>
       </c>
       <c r="G23">
-        <v>0.0007529736297253577</v>
+        <v>1.272575378712588</v>
       </c>
       <c r="H23">
-        <v>0.05097258498324031</v>
+        <v>0.0009687215997524756</v>
       </c>
       <c r="I23">
-        <v>0.04393539907997379</v>
+        <v>0.002132718733791172</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5609220480676811</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5902574686351798</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.0244747224740518</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.08247977904473025</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3262213973989958</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7723255670521141</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.093396454990398</v>
+        <v>3.721117233828409</v>
       </c>
       <c r="C24">
-        <v>1.522929633599688</v>
+        <v>0.7429631175243685</v>
       </c>
       <c r="D24">
-        <v>0.494095960497134</v>
+        <v>0.02855076804500456</v>
       </c>
       <c r="E24">
-        <v>2.024357664267967</v>
+        <v>0.03975599381357764</v>
       </c>
       <c r="F24">
-        <v>9.282577626360364</v>
+        <v>1.306813152822698</v>
       </c>
       <c r="G24">
-        <v>0.0007664096614360714</v>
+        <v>1.107022935451468</v>
       </c>
       <c r="H24">
-        <v>0.03328234609949288</v>
+        <v>0.002952646255070634</v>
       </c>
       <c r="I24">
-        <v>0.02388743652415215</v>
+        <v>0.003701895310216585</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7157978868643795</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6229102143301972</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.026907785271296</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.07705102746336401</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2827979456240968</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6624020000934294</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.142656613778001</v>
+        <v>3.060607943711886</v>
       </c>
       <c r="C25">
-        <v>1.229542174013773</v>
+        <v>0.6015827232375557</v>
       </c>
       <c r="D25">
-        <v>0.4026513398619613</v>
+        <v>0.02493824764313146</v>
       </c>
       <c r="E25">
-        <v>1.625711697670212</v>
+        <v>0.03715297607973456</v>
       </c>
       <c r="F25">
-        <v>7.560761790821061</v>
+        <v>1.223191297285808</v>
       </c>
       <c r="G25">
-        <v>0.0007810655889403182</v>
+        <v>1.015720627331817</v>
       </c>
       <c r="H25">
-        <v>0.01826779157226266</v>
+        <v>0.006626417663747664</v>
       </c>
       <c r="I25">
-        <v>0.009293847328576632</v>
+        <v>0.00704315188531357</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6951657405804639</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6189117721672233</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03492927027403514</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.07085191062475182</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2372520565005942</v>
       </c>
       <c r="Q25">
+        <v>0.5447068061091542</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
